--- a/2022-06-02.xlsx
+++ b/2022-06-02.xlsx
@@ -1134,7 +1134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44714.77546472715</v>
+        <v>44714.77546472222</v>
       </c>
       <c r="B26" t="n">
         <v>232.78</v>
@@ -2306,6 +2306,226 @@
       </c>
       <c r="N26" t="n">
         <v>0.01018</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44714.80234614584</v>
+      </c>
+      <c r="B27" t="n">
+        <v>233.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D27" t="n">
+        <v>151.43</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-42.63</v>
+      </c>
+      <c r="F27" t="n">
+        <v>157.31</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6061800000000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00618</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80256278935</v>
+      </c>
+      <c r="B28" t="n">
+        <v>330.45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>213.93</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-214.86</v>
+      </c>
+      <c r="F28" t="n">
+        <v>222.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.60734</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00734</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.8042971875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>234</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-45.95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>164.27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6142</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80603155093</v>
+      </c>
+      <c r="B30" t="n">
+        <v>234</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D30" t="n">
+        <v>152.93</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="F30" t="n">
+        <v>152.95</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6208399999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80754895834</v>
+      </c>
+      <c r="B31" t="n">
+        <v>232.15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>151.04</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-44.74</v>
+      </c>
+      <c r="F31" t="n">
+        <v>157.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.62659</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02659</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,6 +3755,182 @@
       </c>
       <c r="N27" t="n">
         <v>0.00755</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80193650463</v>
+      </c>
+      <c r="B28" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>149.98</v>
+      </c>
+      <c r="E28" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="F28" t="n">
+        <v>156.68</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.63458</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00458</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.80388759259</v>
+      </c>
+      <c r="B29" t="n">
+        <v>233.84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D29" t="n">
+        <v>148.61</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-53.87</v>
+      </c>
+      <c r="F29" t="n">
+        <v>158.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.64185</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01185</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80540505787</v>
+      </c>
+      <c r="B30" t="n">
+        <v>234.23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>155.74</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-46.17</v>
+      </c>
+      <c r="F30" t="n">
+        <v>162.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.64777</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01777</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80692256944</v>
+      </c>
+      <c r="B31" t="n">
+        <v>233.74</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="E31" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="F31" t="n">
+        <v>158.15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.65347</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02347</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4764,6 +5160,226 @@
       </c>
       <c r="N27" t="n">
         <v>0.00619</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80217734953</v>
+      </c>
+      <c r="B28" t="n">
+        <v>235.21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>147.26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-49.97</v>
+      </c>
+      <c r="F28" t="n">
+        <v>155.51</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.51539</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.80239394676</v>
+      </c>
+      <c r="B29" t="n">
+        <v>332.34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>211.51</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-175.78</v>
+      </c>
+      <c r="F29" t="n">
+        <v>219.73</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.51654</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00654</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80369472222</v>
+      </c>
+      <c r="B30" t="n">
+        <v>328.56</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D30" t="n">
+        <v>222.99</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-143.56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>232.14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80521216435</v>
+      </c>
+      <c r="B31" t="n">
+        <v>334.03</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D31" t="n">
+        <v>209.18</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-94.31999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>220.12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.53176</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80672967593</v>
+      </c>
+      <c r="B32" t="n">
+        <v>332.68</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>222.94</v>
+      </c>
+      <c r="E32" t="n">
+        <v>178.65</v>
+      </c>
+      <c r="F32" t="n">
+        <v>230.13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.54023</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03023</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +5393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6037,6 +6653,182 @@
       </c>
       <c r="N28" t="n">
         <v>0.008540000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.80198434028</v>
+      </c>
+      <c r="B29" t="n">
+        <v>328.65</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-214.05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>173.63</v>
+      </c>
+      <c r="F29" t="n">
+        <v>223.61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80393541667</v>
+      </c>
+      <c r="B30" t="n">
+        <v>332.12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-214.14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>211.94</v>
+      </c>
+      <c r="F30" t="n">
+        <v>227.77</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01727</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01727</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80545289352</v>
+      </c>
+      <c r="B31" t="n">
+        <v>327.97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-212.66</v>
+      </c>
+      <c r="E31" t="n">
+        <v>199.31</v>
+      </c>
+      <c r="F31" t="n">
+        <v>221.81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02535</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02535</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80697040509</v>
+      </c>
+      <c r="B32" t="n">
+        <v>331.64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-210.59</v>
+      </c>
+      <c r="E32" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.03336</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03336</v>
       </c>
     </row>
   </sheetData>
@@ -6050,7 +6842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7222,6 +8014,226 @@
       </c>
       <c r="N26" t="n">
         <v>0.00949</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44714.80222509259</v>
+      </c>
+      <c r="B27" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D27" t="n">
+        <v>147.63</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-42.51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>153.63</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.59558</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00558</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80244177084</v>
+      </c>
+      <c r="B28" t="n">
+        <v>330.52</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>208.43</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="F28" t="n">
+        <v>216.53</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.59671</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00671</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.8037425463</v>
+      </c>
+      <c r="B29" t="n">
+        <v>328.84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D29" t="n">
+        <v>209.43</v>
+      </c>
+      <c r="E29" t="n">
+        <v>145.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>218.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.60354</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01354</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80526028935</v>
+      </c>
+      <c r="B30" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D30" t="n">
+        <v>210.46</v>
+      </c>
+      <c r="E30" t="n">
+        <v>182.61</v>
+      </c>
+      <c r="F30" t="n">
+        <v>221.47</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.61154</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.02154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80677752315</v>
+      </c>
+      <c r="B31" t="n">
+        <v>331.58</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D31" t="n">
+        <v>204.72</v>
+      </c>
+      <c r="E31" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="F31" t="n">
+        <v>211.32</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.61932</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02932</v>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +8247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8539,6 +9551,182 @@
       </c>
       <c r="N29" t="n">
         <v>0.00753</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.8020322338</v>
+      </c>
+      <c r="B30" t="n">
+        <v>232.57</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D30" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-49.07</v>
+      </c>
+      <c r="F30" t="n">
+        <v>164.01</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.58516</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00516</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80398336805</v>
+      </c>
+      <c r="B31" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D31" t="n">
+        <v>146.21</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-50.45</v>
+      </c>
+      <c r="F31" t="n">
+        <v>154.67</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.59231</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80550087963</v>
+      </c>
+      <c r="B32" t="n">
+        <v>235.07</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D32" t="n">
+        <v>153.61</v>
+      </c>
+      <c r="E32" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="F32" t="n">
+        <v>160.03</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.59815</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01815</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44714.80701832176</v>
+      </c>
+      <c r="B33" t="n">
+        <v>233.76</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-41.96</v>
+      </c>
+      <c r="F33" t="n">
+        <v>160.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.60404</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.02404</v>
       </c>
     </row>
   </sheetData>
@@ -8552,7 +9740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9768,6 +10956,226 @@
       </c>
       <c r="N27" t="n">
         <v>0.00774</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80183944444</v>
+      </c>
+      <c r="B28" t="n">
+        <v>233.42</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D28" t="n">
+        <v>153.12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-41.37</v>
+      </c>
+      <c r="F28" t="n">
+        <v>158.61</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5243100000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00431</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.803356875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>233.15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D29" t="n">
+        <v>152.03</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>157.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.53009</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01009</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80487435185</v>
+      </c>
+      <c r="B30" t="n">
+        <v>233.73</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D30" t="n">
+        <v>147.05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-39.67</v>
+      </c>
+      <c r="F30" t="n">
+        <v>152.31</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.53568</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01568</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80639188657</v>
+      </c>
+      <c r="B31" t="n">
+        <v>234.52</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D31" t="n">
+        <v>153.97</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-42.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>159.79</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.54153</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02153</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80790931713</v>
+      </c>
+      <c r="B32" t="n">
+        <v>233.15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-41.82</v>
+      </c>
+      <c r="F32" t="n">
+        <v>161.78</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.54747</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02747</v>
       </c>
     </row>
   </sheetData>
@@ -9781,7 +11189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10997,6 +12405,226 @@
       </c>
       <c r="N27" t="n">
         <v>6e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44714.80208010416</v>
+      </c>
+      <c r="B28" t="n">
+        <v>230.62</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L28" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.53006</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.80229675926</v>
+      </c>
+      <c r="B29" t="n">
+        <v>334.08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L29" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.53008</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80381428241</v>
+      </c>
+      <c r="B30" t="n">
+        <v>326.96</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L30" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.53023</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00023</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80533207176</v>
+      </c>
+      <c r="B31" t="n">
+        <v>474.13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.53037</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00037</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80684925926</v>
+      </c>
+      <c r="B32" t="n">
+        <v>324.88</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L32" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.53052</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00052</v>
       </c>
     </row>
   </sheetData>
@@ -11010,7 +12638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11390,6 +13018,82 @@
         <v>58.8</v>
       </c>
       <c r="E20" t="n">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44714.80125532408</v>
+      </c>
+      <c r="B21" t="n">
+        <v>54.043</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44714.80342414352</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55.504</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44714.80559089121</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57.939</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>53.33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44714.80775835648</v>
+      </c>
+      <c r="B24" t="n">
+        <v>55.991</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="E24" t="n">
         <v>53.33</v>
       </c>
     </row>
@@ -11404,7 +13108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12664,6 +14368,226 @@
       </c>
       <c r="N28" t="n">
         <v>0.007979999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44714.80188736111</v>
+      </c>
+      <c r="B29" t="n">
+        <v>233.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D29" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-37.4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>158.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5245</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44714.80362168982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>233.98</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D30" t="n">
+        <v>153.26</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-44.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>159.55</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.53116</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44714.80513916667</v>
+      </c>
+      <c r="B31" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D31" t="n">
+        <v>147.05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-48.16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>154.74</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.53676</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01676</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44714.80665660879</v>
+      </c>
+      <c r="B32" t="n">
+        <v>233.84</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D32" t="n">
+        <v>151.49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38.78</v>
+      </c>
+      <c r="F32" t="n">
+        <v>156.38</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.54252</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44714.80817409431</v>
+      </c>
+      <c r="B33" t="n">
+        <v>232.64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D33" t="n">
+        <v>153.85</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-35.55</v>
+      </c>
+      <c r="F33" t="n">
+        <v>157.91</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.54836</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.02836</v>
       </c>
     </row>
   </sheetData>
@@ -15689,7 +17613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16126,6 +18050,113 @@
         <v>0.6514290995440534</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44714.80336393519</v>
+      </c>
+      <c r="B5" t="n">
+        <v>233.4247590584082</v>
+      </c>
+      <c r="C5" t="n">
+        <v>233.4247590584082</v>
+      </c>
+      <c r="D5" t="n">
+        <v>233.4247590584082</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6794799863499673</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6794799863499673</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6794799863499673</v>
+      </c>
+      <c r="H5" t="n">
+        <v>153.1180974126501</v>
+      </c>
+      <c r="I5" t="n">
+        <v>153.1180974126501</v>
+      </c>
+      <c r="J5" t="n">
+        <v>153.1180974126501</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-41.36631607948662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-41.36631607948662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-41.36631607948662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>158.6074520987516</v>
+      </c>
+      <c r="O5" t="n">
+        <v>158.6074520987516</v>
+      </c>
+      <c r="P5" t="n">
+        <v>158.6074520987516</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2835332416666477</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.2835332416666477</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2835332416666477</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8627797784824511</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8627797784824511</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.8627797784824511</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2936980396566193</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.2936980396566193</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.2936980396566193</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.5859895316997513</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5859895316997513</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5859895316997513</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.135510855582655</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.135510855582655</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.135510855582655</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5300870958466569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
